--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_259.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_259.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,223 +488,232 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1480769230769231</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A'], ['A', 'D', 'A']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(60.04, 65.24), (16.02, 22.5)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(43.926916, 50.765192), (28.450816, 36.229501)]</t>
+          <t>[('0:00:42.880000', '0:00:45.100000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:18.240000', '0:00:29.100000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(18.32, 25.82)]</t>
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(99.6, 111.62), (46.52, 48.94)]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(27.46, 36.02), (81.1, 87.58)]</t>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:10.203514', '0:01:27.246961')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(67.76, 84.78)]</t>
+          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>0.07334525939177103</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[(36.6, 39.0)]</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(38.62, 44.06)]</t>
+          <t>[('0:00:31.740000', '0:00:33.880000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:00:37.540000', '0:00:42.720000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -708,495 +722,464 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4545454545454545</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76), (35.6, 37.24), (8.46, 13.46)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (53.46, 62.74), (0.38, 6.26)]</t>
+          <t>[('0:01:10.519024', '0:01:19.249727')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (66.22, 72.3)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74), (30.02, 32.12)]</t>
+          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (74.96, 82.28)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42), (29.5, 31.64)]</t>
+          <t>[('0:00:59.600000', '0:01:10.340000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:02.580000', '0:00:16.360000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(67.76, 84.78)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[('0:00:13.600000', '0:00:17.780000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:03.440000', '0:00:07.080000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(83.76, 92.66)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(97.94, 108.3)]</t>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3355263157894737</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A', 'D', 'E', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D', 'G', 'C', 'D', 'G', 'C']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.366281, 20.172902)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(50.506553, 63.382018)]</t>
+          <t>[('0:01:24.160000', '0:01:32.420000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>[('0:01:36.740000', '0:01:48.820000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(94.68, 110.76)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(11.94, 17.6)]</t>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07714786674459381</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D/5', 'G', 'C'], ['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G'], ['G', 'A', 'D']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(38.435396, 43.311587), (17.014988, 20.892721)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(31.43458, 34.406734), (33.431496, 38.307687)]</t>
+          <t>[('0:00:27.600000', '0:00:54.260000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(9.48, 25.94)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(4.86, 9.64)]</t>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[('0:00:05', '0:01:54.060000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(75.56, 95.68)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(120.66, 122.74)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
